--- a/Tiempos de ejecucion.xlsx
+++ b/Tiempos de ejecucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrgir\Desktop\analisi\tarea4\Tarea_4_Analisis_Jose_Girard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6ACD9-B887-4047-90F7-94BFBF24DDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992EDD37-8B33-4457-9F6D-66D8D6992176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Insertion Sort</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Selection Sort</t>
   </si>
   <si>
-    <t>Boubble Sort</t>
-  </si>
-  <si>
     <t>Merge Sort</t>
   </si>
   <si>
@@ -46,13 +43,295 @@
   </si>
   <si>
     <t>Algoritmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 elementos </t>
+  </si>
+  <si>
+    <t>1000 elementos</t>
+  </si>
+  <si>
+    <t>50000 elementos</t>
+  </si>
+  <si>
+    <t>100000 elementos</t>
+  </si>
+  <si>
+    <t>66682953 microsegundos</t>
+  </si>
+  <si>
+    <t>143119 microsegundos</t>
+  </si>
+  <si>
+    <t>19335 microsegundos</t>
+  </si>
+  <si>
+    <t>23062 microsegundos</t>
+  </si>
+  <si>
+    <t>21577562 microsegundos</t>
+  </si>
+  <si>
+    <t>26213209 microsegundos</t>
+  </si>
+  <si>
+    <t>16499112 microsegundos</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>5350450 microsegundos</t>
+  </si>
+  <si>
+    <t>10000 elementos</t>
+  </si>
+  <si>
+    <t>2004 microsegundos</t>
+  </si>
+  <si>
+    <t>primera ejecucion</t>
+  </si>
+  <si>
+    <t>Segunda ejecucion</t>
+  </si>
+  <si>
+    <t>Tercera ejecucion</t>
+  </si>
+  <si>
+    <t>1 microsegundos</t>
+  </si>
+  <si>
+    <t>3 microsegundos</t>
+  </si>
+  <si>
+    <t>37 microsegundos</t>
+  </si>
+  <si>
+    <t>0 microsegundos</t>
+  </si>
+  <si>
+    <t>59 microsegundos</t>
+  </si>
+  <si>
+    <t>6171 microsegundos</t>
+  </si>
+  <si>
+    <t>2764 microsegundos</t>
+  </si>
+  <si>
+    <t>2744 microsegundos</t>
+  </si>
+  <si>
+    <t>141 microsegundos</t>
+  </si>
+  <si>
+    <t>139 microsegundos</t>
+  </si>
+  <si>
+    <t>1952 microsegundos</t>
+  </si>
+  <si>
+    <t>9804 microsegundos</t>
+  </si>
+  <si>
+    <t>4047 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3368 microsegundos</t>
+  </si>
+  <si>
+    <t>1508 microsegundos</t>
+  </si>
+  <si>
+    <t>173 microsegundos</t>
+  </si>
+  <si>
+    <t>159 microsegundos</t>
+  </si>
+  <si>
+    <t>19 microsegundos</t>
+  </si>
+  <si>
+    <t>2 microsegundos</t>
+  </si>
+  <si>
+    <t>3204 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2784 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9073 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1486 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 161 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 146 microsegundos</t>
+  </si>
+  <si>
+    <t>1546 microsegundos</t>
+  </si>
+  <si>
+    <t>13706 microsegundos</t>
+  </si>
+  <si>
+    <t>675519 microsegundos</t>
+  </si>
+  <si>
+    <t>213861 microsegundos</t>
+  </si>
+  <si>
+    <t>256453 microsegundos</t>
+  </si>
+  <si>
+    <t>10623 microsegundos</t>
+  </si>
+  <si>
+    <t>8946 microsegundos</t>
+  </si>
+  <si>
+    <t>72205 microsegundos</t>
+  </si>
+  <si>
+    <t>6486647 microsegundos</t>
+  </si>
+  <si>
+    <t>710484 microsegundos</t>
+  </si>
+  <si>
+    <t>271336 microsegundos</t>
+  </si>
+  <si>
+    <t>256079 microsegundos</t>
+  </si>
+  <si>
+    <t>17189 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1502 microsegundos</t>
+  </si>
+  <si>
+    <t>1812 microsegundos</t>
+  </si>
+  <si>
+    <t>13595 microsegundos</t>
+  </si>
+  <si>
+    <t>1568 microsegundos</t>
+  </si>
+  <si>
+    <t>1672 microsegundos</t>
+  </si>
+  <si>
+    <t>246812 microsegundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 214782 microsegundos</t>
+  </si>
+  <si>
+    <t>665781 microsegundos</t>
+  </si>
+  <si>
+    <t>16679104 microsegundos</t>
+  </si>
+  <si>
+    <t>5396550 microsegundos</t>
+  </si>
+  <si>
+    <t>6524580 microsegundos</t>
+  </si>
+  <si>
+    <t>9020 microsegundos</t>
+  </si>
+  <si>
+    <t>10215 microsegundos</t>
+  </si>
+  <si>
+    <t>71141 microsegundos</t>
+  </si>
+  <si>
+    <t>16455257 microsegundos</t>
+  </si>
+  <si>
+    <t>5348018 microsegundos</t>
+  </si>
+  <si>
+    <t>6408920 microsegundos</t>
+  </si>
+  <si>
+    <t>72284 microsegundos</t>
+  </si>
+  <si>
+    <t>9302 microsegundos</t>
+  </si>
+  <si>
+    <t>10812 microsegundos</t>
+  </si>
+  <si>
+    <t>66521932 microsegundos</t>
+  </si>
+  <si>
+    <t>21797687 microsegundos</t>
+  </si>
+  <si>
+    <t>26087311 microsegundos</t>
+  </si>
+  <si>
+    <t>23082 microsegundos</t>
+  </si>
+  <si>
+    <t>20011 microsegundos</t>
+  </si>
+  <si>
+    <t>25825769 microsegundos</t>
+  </si>
+  <si>
+    <t>21701512 microsegundos</t>
+  </si>
+  <si>
+    <t>144728 microsegundos</t>
+  </si>
+  <si>
+    <t>19663 microsegundos</t>
+  </si>
+  <si>
+    <t>22050 microsegundos</t>
+  </si>
+  <si>
+    <t>Letra roja igual tiempo mas alto</t>
+  </si>
+  <si>
+    <t>Letra verde igual tiempo mas bajo</t>
+  </si>
+  <si>
+    <t>66102373 microsegundos</t>
+  </si>
+  <si>
+    <t>145016 microsegundos</t>
+  </si>
+  <si>
+    <t>Podemos notar como en la mayoria el Algoritmo de sort que mas se tarda es el buble sort menos cuando son datos muy pequeños donde el peor seria el merge sort.</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>En cuanto al mejor algorirmo seria el heap sort y quick sort que presentan resultados algo similares.</t>
+  </si>
+  <si>
+    <t>Es curioso como con un arreglo muy pequeño la mayoria de algoritmos de sort son muy buenos teniendo diferecias de minimas pero como a medida estos van siendo una mayor cantidad de elementos se puede llegar a notar una clara diferencia en los tiempos de ejecucion.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +345,48 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -98,20 +409,584 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -122,6 +997,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{718669FD-63CD-4386-9371-D9200CB8CBA0}" name="Table1" displayName="Table1" ref="B6:G12" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+  <autoFilter ref="B6:G12" xr:uid="{718669FD-63CD-4386-9371-D9200CB8CBA0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1A0DEF1A-2C5B-4C2A-B822-351AB8CE2EE6}" name="Algoritmos" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{90666FF5-67C6-478E-BDA4-1CD1CF3373F3}" name="10 elementos " dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{9B72665D-7F44-4A54-9BC9-5978A0A30A6F}" name="1000 elementos" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{4BE1DD45-9926-4155-B8A3-0B95CA64D369}" name="10000 elementos" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{066098B0-31AF-42EC-B451-36AD9474DF08}" name="50000 elementos" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{984E4B59-80F6-444B-B2EF-6FF3060A5AEB}" name="100000 elementos" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B93BC487-BFE2-4F4D-8A26-0676F9257E7A}" name="Table2" displayName="Table2" ref="B16:G22" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="B16:G22" xr:uid="{B93BC487-BFE2-4F4D-8A26-0676F9257E7A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7DC71725-AC00-45B7-A712-6492E36D41B4}" name="Algoritmos" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3D42D1AC-D847-41CA-AA73-9AFA3DEBB0EA}" name="10 elementos " dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E66C75B2-7746-405F-B5A0-0433154377B2}" name="1000 elementos" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7B8465F0-620E-41A8-868E-30BB9DB0E9F7}" name="10000 elementos" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{0358E4A1-174D-4F8D-B2AB-8185198EEE7F}" name="50000 elementos" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3C20B012-DFFA-4142-866C-0A86CD3B7855}" name="100000 elementos" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F535D630-FEE8-4C01-A424-0E74B3310DC6}" name="Table3" displayName="Table3" ref="B26:G32" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B26:G32" xr:uid="{F535D630-FEE8-4C01-A424-0E74B3310DC6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8A5429A7-C46A-43EA-A4AA-02251C1740E0}" name="Algoritmos" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5437AD0A-897C-44F5-B57D-3CCC6C029201}" name="10 elementos " dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C07FA6C3-51B2-486F-8F7A-714482651163}" name="1000 elementos" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1C7A5B5E-74A8-46C0-852E-8984D482B835}" name="10000 elementos" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{468C7CC8-2BB4-46B8-BCE2-D83BE287F750}" name="50000 elementos" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4B67B61D-705D-4077-96D8-65F94DECA34C}" name="100000 elementos" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,86 +1307,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="C21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B42:F43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>